--- a/src/test/resources/files/Prerequest.xlsx
+++ b/src/test/resources/files/Prerequest.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="39">
   <si>
     <t>a</t>
   </si>
@@ -129,6 +129,18 @@
   </si>
   <si>
     <t>Login</t>
+  </si>
+  <si>
+    <t>Proj Man</t>
+  </si>
+  <si>
+    <t>Project Manager</t>
+  </si>
+  <si>
+    <t>proj@gmail.com</t>
+  </si>
+  <si>
+    <t>PM</t>
   </si>
 </sst>
 </file>
@@ -457,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -471,6 +483,7 @@
     <col min="5" max="5" width="25" customWidth="1"/>
     <col min="6" max="6" width="20.109375" customWidth="1"/>
     <col min="7" max="7" width="21.109375" customWidth="1"/>
+    <col min="8" max="8" width="19.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -732,6 +745,38 @@
       <c r="H10" t="s">
         <v>34</v>
       </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11">
+        <v>1111</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D13" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -744,6 +789,7 @@
     <hyperlink ref="D8" r:id="rId7"/>
     <hyperlink ref="D9" r:id="rId8"/>
     <hyperlink ref="D10" r:id="rId9"/>
+    <hyperlink ref="D11" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
